--- a/UConnBleedBlue/wwwroot/Data/PlayersForTesting.xlsx
+++ b/UConnBleedBlue/wwwroot/Data/PlayersForTesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\UConnBleedBlue\UConnBleedBlue\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A788952A-76AE-440C-8546-2E72E7B49898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1198515-B20B-4A50-9A6E-731B60619DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{4F83266A-41F9-4FA3-9290-1EB5622BBFC1}"/>
+    <workbookView xWindow="28680" yWindow="-2325" windowWidth="38640" windowHeight="21120" xr2:uid="{4F83266A-41F9-4FA3-9290-1EB5622BBFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Demers, Kenny</t>
   </si>
@@ -66,45 +66,6 @@
   </si>
   <si>
     <t>Tickets</t>
-  </si>
-  <si>
-    <t>Akowitz, Al</t>
-  </si>
-  <si>
-    <t>aakowitz@aol.com</t>
-  </si>
-  <si>
-    <t>Robert Casciola</t>
-  </si>
-  <si>
-    <t>Not Needed</t>
-  </si>
-  <si>
-    <t>Nichols, Bobby</t>
-  </si>
-  <si>
-    <t>bobnichols49@gmail.com</t>
-  </si>
-  <si>
-    <t>Demers, Cliff</t>
-  </si>
-  <si>
-    <t>cordseller1@gmail.com</t>
-  </si>
-  <si>
-    <t>Rick Forzano</t>
-  </si>
-  <si>
-    <t>Tiner, Ralph</t>
-  </si>
-  <si>
-    <t>ralphtiner83@gmail.com</t>
-  </si>
-  <si>
-    <t>Kraham,Keith</t>
-  </si>
-  <si>
-    <t>keith.kraham@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -485,7 +446,7 @@
   <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,16 +505,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -564,74 +525,32 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1970</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1969</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -1134,12 +1053,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D4F421DD-A322-4F00-A209-B464A28664A6}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{2084DE85-F91B-41FD-80A7-DF94DB67856A}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{564704C7-6C36-42A5-9893-C34B22A492EF}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{509BC9E5-EA4A-41DC-A4CD-E10FCAB23E9E}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2EE76E88-893B-4E7F-A876-2255A8D99C7C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F3A9F971-DAE7-49EC-84DE-5020AB7D35F8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{DFF9F2B3-4F7F-4233-BB59-BF5F0C6C0891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>